--- a/Excel/DCF AAPL 15.08.24.xlsx
+++ b/Excel/DCF AAPL 15.08.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredherber/Desktop/Finance-Portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2AA566-4A1D-3C4F-AFAA-8884587F31FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AB1DA5-C1D0-DE4C-851A-9AED95C0187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="29400" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="36980" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement Model" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="362">
   <si>
     <t>Ticker</t>
   </si>
@@ -975,9 +975,6 @@
     <t xml:space="preserve">cash and Cash equivelants </t>
   </si>
   <si>
-    <t>total Debt</t>
-  </si>
-  <si>
     <t>Value of Equity</t>
   </si>
   <si>
@@ -1120,6 +1117,15 @@
   </si>
   <si>
     <t>I started with high growth, inline somewhat with previous years average . Then tapered it off slowly to aproach the Feds target of 1-3% inflation but kept it slightly above due to apples inovative nature.</t>
+  </si>
+  <si>
+    <t>Weighted Average Cost of Capital</t>
+  </si>
+  <si>
+    <t>Implied Share Price</t>
+  </si>
+  <si>
+    <t>Terminal Value Growth Rate</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,6 +1265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +1459,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1641,9 +1653,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1672,6 +1681,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1679,7 +1710,107 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1704,8 +1835,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1F4174"/>
       <color rgb="FFF1F1C5"/>
-      <color rgb="FF1F4174"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2006,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="60" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2019,11 +2150,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2201,9 +2332,9 @@
       </c>
       <c r="K11" s="6">
         <f>J11*(1+K12)</f>
-        <v>515158430350.40997</v>
-      </c>
-      <c r="L11" s="128"/>
+        <v>512693557477.92004</v>
+      </c>
+      <c r="L11" s="127"/>
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="103" t="s">
@@ -2235,10 +2366,10 @@
         <v>0.05</v>
       </c>
       <c r="K12" s="120">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="L12" s="129" t="s">
-        <v>359</v>
+        <v>0.04</v>
+      </c>
+      <c r="L12" s="128" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2248,7 +2379,7 @@
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
       <c r="G13" s="36"/>
-      <c r="L13" s="129"/>
+      <c r="L13" s="128"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
@@ -2288,9 +2419,9 @@
       </c>
       <c r="K14" s="23">
         <f>K11*K15</f>
-        <v>299495895465.82159</v>
-      </c>
-      <c r="L14" s="129"/>
+        <v>298062900750.67413</v>
+      </c>
+      <c r="L14" s="128"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="103" t="s">
@@ -2332,7 +2463,7 @@
         <f>AVERAGE($C$15:$F$15)</f>
         <v>0.58136658127113428</v>
       </c>
-      <c r="L15" s="129"/>
+      <c r="L15" s="128"/>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
@@ -2372,9 +2503,9 @@
       </c>
       <c r="K16" s="108">
         <f>K11-K14</f>
-        <v>215662534884.58838</v>
-      </c>
-      <c r="L16" s="129"/>
+        <v>214630656727.24591</v>
+      </c>
+      <c r="L16" s="128"/>
     </row>
     <row r="17" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="103" t="s">
@@ -2401,7 +2532,7 @@
       <c r="I17" s="47"/>
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
-      <c r="L17" s="129"/>
+      <c r="L17" s="128"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
@@ -2410,7 +2541,7 @@
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
       <c r="G18" s="36"/>
-      <c r="L18" s="129"/>
+      <c r="L18" s="128"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="104" t="s">
@@ -2450,9 +2581,9 @@
       </c>
       <c r="K19" s="6">
         <f>K11*K20</f>
-        <v>35138220919.497414</v>
-      </c>
-      <c r="L19" s="128"/>
+        <v>34970095460.552452</v>
+      </c>
+      <c r="L19" s="127"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="28" t="s">
@@ -2534,7 +2665,7 @@
       </c>
       <c r="K21" s="6">
         <f>K11*K22</f>
-        <v>33652840533.680958</v>
+        <v>33491822157.921726</v>
       </c>
       <c r="L21" s="25"/>
     </row>
@@ -2618,7 +2749,7 @@
       </c>
       <c r="K23">
         <f>K19+K21</f>
-        <v>68791061453.178375</v>
+        <v>68461917618.474182</v>
       </c>
       <c r="L23" s="25"/>
     </row>
@@ -2682,7 +2813,7 @@
       </c>
       <c r="K26" s="23">
         <f t="shared" si="3"/>
-        <v>368286956919</v>
+        <v>366524818369.14832</v>
       </c>
       <c r="L26" s="25"/>
     </row>
@@ -2724,7 +2855,7 @@
       </c>
       <c r="K27" s="32">
         <f t="shared" si="4"/>
-        <v>146871473431.41</v>
+        <v>146168739108.77173</v>
       </c>
       <c r="L27" s="25"/>
     </row>
@@ -2766,7 +2897,7 @@
       </c>
       <c r="K28" s="24">
         <f t="shared" si="5"/>
-        <v>0.2850996213563044</v>
+        <v>0.28509962135630446</v>
       </c>
       <c r="L28" s="25"/>
     </row>
@@ -2930,7 +3061,7 @@
       </c>
       <c r="K32" s="98">
         <f t="shared" ref="K32" si="16">K27+K29+K31</f>
-        <v>161072052799.52551</v>
+        <v>160369318476.88724</v>
       </c>
       <c r="L32" s="25"/>
     </row>
@@ -2972,7 +3103,7 @@
       </c>
       <c r="K33" s="21">
         <f t="shared" si="17"/>
-        <v>0.31266508186610581</v>
+        <v>0.31279760811855684</v>
       </c>
       <c r="L33" s="25"/>
     </row>
@@ -3047,7 +3178,7 @@
       </c>
       <c r="K36" s="6">
         <f t="shared" si="18"/>
-        <v>161072052799.52551</v>
+        <v>160369318476.88724</v>
       </c>
       <c r="L36" s="25"/>
     </row>
@@ -3089,7 +3220,7 @@
       </c>
       <c r="K37" s="21">
         <f t="shared" si="19"/>
-        <v>0.31266508186610581</v>
+        <v>0.31279760811855684</v>
       </c>
       <c r="L37" s="25"/>
     </row>
@@ -3131,7 +3262,7 @@
       </c>
       <c r="K38" s="6">
         <f>K36*$C$7</f>
-        <v>23677591761.530251</v>
+        <v>23574289816.102421</v>
       </c>
       <c r="L38" s="25"/>
     </row>
@@ -3173,7 +3304,7 @@
       </c>
       <c r="K39" s="98">
         <f t="shared" si="21"/>
-        <v>137394461037.99527</v>
+        <v>136795028660.78482</v>
       </c>
       <c r="L39" s="25"/>
     </row>
@@ -3183,7 +3314,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B41" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C41" s="6">
         <f>'Income Statement SEC'!C42</f>
@@ -3219,7 +3350,7 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" si="22"/>
-        <v>8.9183269685238695</v>
+        <v>8.8794175838580358</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -3240,7 +3371,7 @@
     <row r="44" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C44" s="84">
         <f>C9</f>
@@ -3290,7 +3421,7 @@
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F46" s="1"/>
       <c r="K46" s="1"/>
@@ -3335,14 +3466,14 @@
       </c>
       <c r="K47" s="88">
         <f t="shared" si="24"/>
-        <v>108020390966.25258</v>
+        <v>107846795486.14876</v>
       </c>
       <c r="L47" s="25"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C48" s="88">
         <f>'Balance Sheet SEC'!C21*1000000</f>
@@ -3385,7 +3516,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C49" s="88">
         <f>37445000*1000</f>
@@ -3421,14 +3552,14 @@
       </c>
       <c r="K49" s="88">
         <f t="shared" si="26"/>
-        <v>76093260189.023849</v>
+        <v>75729177604.387375</v>
       </c>
       <c r="L49" s="25"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C50" s="21">
         <f>C49/C11</f>
@@ -3507,14 +3638,14 @@
       </c>
       <c r="K51" s="6">
         <f t="shared" si="29"/>
-        <v>7964489849.3216629</v>
+        <v>7926382242.3871107</v>
       </c>
       <c r="L51" s="25"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C52" s="21">
         <f>C51/C11</f>
@@ -3600,7 +3731,7 @@
     <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C54" s="80">
         <f>C47+C48+C49+C51+C53</f>
@@ -3636,7 +3767,7 @@
       </c>
       <c r="K54" s="81">
         <f t="shared" si="34"/>
-        <v>238048092176.47308</v>
+        <v>237472306504.79825</v>
       </c>
       <c r="L54" s="25"/>
     </row>
@@ -3653,7 +3784,7 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C56" s="88">
         <f>'Balance Sheet SEC'!C30*1000000</f>
@@ -3689,14 +3820,14 @@
       </c>
       <c r="K56" s="88">
         <f t="shared" si="35"/>
-        <v>33992483608.39595</v>
+        <v>34002749070.055077</v>
       </c>
       <c r="L56" s="25"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C57" s="88">
         <f>'Balance Sheet SEC'!C29*1000000</f>
@@ -3818,7 +3949,7 @@
       </c>
       <c r="K59" s="88">
         <f t="shared" si="39"/>
-        <v>199294483608.39594</v>
+        <v>199304749070.05508</v>
       </c>
       <c r="L59" s="25"/>
     </row>
@@ -3868,7 +3999,7 @@
       </c>
       <c r="K61" s="98">
         <f t="shared" si="41"/>
-        <v>437342575784.86902</v>
+        <v>436777055574.85333</v>
       </c>
       <c r="L61" s="25"/>
     </row>
@@ -3882,16 +4013,16 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="59"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123"/>
       <c r="K63" s="1"/>
       <c r="L63" s="25"/>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F64" s="1"/>
       <c r="K64" s="1"/>
@@ -3900,7 +4031,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C65" s="64">
         <f>'Balance Sheet SEC'!C37*1000000</f>
@@ -3936,14 +4067,14 @@
       </c>
       <c r="K65" s="6">
         <f t="shared" si="42"/>
-        <v>83180903132.73114</v>
+        <v>82782908380.899887</v>
       </c>
       <c r="L65" s="25"/>
     </row>
     <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C66" s="21">
         <f>C65/C14</f>
@@ -3986,7 +4117,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C67" s="88">
         <f>('Balance Sheet SEC'!C41+'Balance Sheet SEC'!C40)*1000000</f>
@@ -4029,7 +4160,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C68" s="88">
         <f>'Balance Sheet SEC'!C39*1000000</f>
@@ -4065,14 +4196,14 @@
       </c>
       <c r="K68" s="6">
         <f t="shared" si="46"/>
-        <v>11089187360.700369</v>
+        <v>11036129047.969748</v>
       </c>
       <c r="L68" s="25"/>
     </row>
     <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="63" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C69" s="21">
         <f>C68/C11</f>
@@ -4158,7 +4289,7 @@
     <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C71" s="80">
         <f>SUM(C65:C70)</f>
@@ -4194,7 +4325,7 @@
       </c>
       <c r="K71" s="108">
         <f t="shared" si="51"/>
-        <v>165044913735.61902</v>
+        <v>164593860671.05713</v>
       </c>
       <c r="L71" s="25"/>
     </row>
@@ -4294,7 +4425,7 @@
     <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C75" s="88">
         <f>C73+C74</f>
@@ -4344,7 +4475,7 @@
     <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C77" s="108">
         <f>C75+C71</f>
@@ -4380,7 +4511,7 @@
       </c>
       <c r="K77" s="98">
         <f t="shared" si="56"/>
-        <v>310173913735.61902</v>
+        <v>309722860671.05713</v>
       </c>
       <c r="L77" s="25"/>
     </row>
@@ -4421,7 +4552,7 @@
     <row r="81" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="83" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C81" s="85">
         <f>C44</f>
@@ -4510,7 +4641,7 @@
       </c>
       <c r="K83" s="6">
         <f t="shared" si="58"/>
-        <v>137394461037.99527</v>
+        <v>136795028660.78482</v>
       </c>
       <c r="L83" s="25"/>
     </row>
@@ -4553,14 +4684,14 @@
       </c>
       <c r="K84" s="6">
         <f t="shared" si="59"/>
-        <v>16656790588.999226</v>
+        <v>16577093026.372437</v>
       </c>
       <c r="L84" s="25"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C85" s="21">
         <f>C84/C11</f>
@@ -4725,14 +4856,14 @@
       </c>
       <c r="K88" s="88">
         <f t="shared" ref="K88" si="65">(J54-J71)-(K54-K71)</f>
-        <v>-29858227801.817169</v>
+        <v>-29733495194.704224</v>
       </c>
       <c r="L88" s="25"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C89" s="88">
         <f>'Cash Flow Statement SEC'!C30*1000000</f>
@@ -4811,14 +4942,14 @@
       </c>
       <c r="K90" s="88">
         <f t="shared" si="67"/>
-        <v>-342968462.41098022</v>
+        <v>-304860855.47642803</v>
       </c>
       <c r="L90" s="25"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C91" s="88">
         <f>'Cash Flow Statement SEC'!C34*1000000</f>
@@ -4854,14 +4985,14 @@
       </c>
       <c r="K91" s="88">
         <f t="shared" si="68"/>
-        <v>-2742148353.9397125</v>
+        <v>-2344153602.1084595</v>
       </c>
       <c r="L91" s="25"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C92" s="88">
         <f>'Cash Flow Statement YFinance'!B17</f>
@@ -4937,7 +5068,7 @@
     <row r="94" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C94" s="116">
         <f>'Cash Flow Statement SEC'!C36*1000000</f>
@@ -4973,7 +5104,7 @@
       </c>
       <c r="K94" s="101">
         <f t="shared" si="69"/>
-        <v>150807541317.18457</v>
+        <v>150564513736.1131</v>
       </c>
       <c r="L94" s="25"/>
     </row>
@@ -4994,7 +5125,7 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C96" s="88">
         <f>'Cash Flow Statement SEC'!C42*1000000</f>
@@ -5030,14 +5161,14 @@
       </c>
       <c r="K96" s="88">
         <f t="shared" si="70"/>
-        <v>-14511309102.241383</v>
+        <v>-14441877001.273722</v>
       </c>
       <c r="L96" s="25"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C97" s="88">
         <f>'Cash Flow Statement YFinance'!B24</f>
@@ -5065,7 +5196,7 @@
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C98" s="88">
         <f>'Cash Flow Statement YFinance'!B25</f>
@@ -5093,7 +5224,7 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C99" s="88">
         <f>'Cash Flow Statement YFinance'!B26</f>
@@ -5121,7 +5252,7 @@
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C100" s="88">
         <f>'Cash Flow Statement YFinance'!B28</f>
@@ -5149,7 +5280,7 @@
     <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C101" s="116">
         <f>SUM(C96:C100)</f>
@@ -5185,7 +5316,7 @@
       </c>
       <c r="K101" s="117">
         <f t="shared" si="72"/>
-        <v>-14511309102.241383</v>
+        <v>-14441877001.273722</v>
       </c>
       <c r="L101" s="25"/>
     </row>
@@ -5206,7 +5337,7 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C103" s="88">
         <f>'Cash Flow Statement SEC'!C53*1000000</f>
@@ -5249,7 +5380,7 @@
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C104" s="88">
         <f>'Cash Flow Statement YFinance'!B36</f>
@@ -5287,7 +5418,7 @@
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C105" s="88">
         <f>'Cash Flow Statement SEC'!C51*1000000</f>
@@ -5330,7 +5461,7 @@
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C106" s="88">
         <f>'Cash Flow Statement SEC'!C50*1000000</f>
@@ -5373,7 +5504,7 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C107" s="88">
         <f>(('Cash Flow Statement SEC'!C52+'Cash Flow Statement SEC'!C54+'Cash Flow Statement SEC'!C49+'Cash Flow Statement SEC'!C55)*1000000)-C104</f>
@@ -5411,7 +5542,7 @@
     <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C108" s="116">
         <f>SUM(C103:C107)</f>
@@ -5464,7 +5595,7 @@
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C110" s="88">
         <f>0</f>
@@ -5488,7 +5619,7 @@
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C111" s="116">
         <f>'Cash Flow Statement SEC'!C59*1000000</f>
@@ -5524,14 +5655,14 @@
       </c>
       <c r="K111" s="108">
         <f t="shared" si="78"/>
-        <v>28748963660.255692</v>
+        <v>28575368180.151871</v>
       </c>
       <c r="L111" s="25"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C112" s="88">
         <f>'Cash Flow Statement SEC'!C61*1000000</f>
@@ -5567,14 +5698,14 @@
       </c>
       <c r="K112" s="6">
         <f t="shared" si="79"/>
-        <v>108020390966.25258</v>
+        <v>107846795486.14876</v>
       </c>
       <c r="L112" s="25"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C113" s="88">
         <f>'Cash Flow Statement YFinance'!B45</f>
@@ -5653,7 +5784,7 @@
       </c>
       <c r="K114" s="6">
         <f t="shared" si="83"/>
-        <v>150807541317.18457</v>
+        <v>150564513736.1131</v>
       </c>
       <c r="L114" s="25"/>
     </row>
@@ -5696,14 +5827,14 @@
       </c>
       <c r="K115" s="6">
         <f t="shared" si="84"/>
-        <v>-14511309102.241383</v>
+        <v>-14441877001.273722</v>
       </c>
       <c r="L115" s="25"/>
     </row>
     <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C116" s="21">
         <f>C115/C11</f>
@@ -5768,21 +5899,21 @@
         <f>SUM(G114:G115)</f>
         <v>111564579216.68376</v>
       </c>
-      <c r="H117" s="123">
+      <c r="H117" s="122">
         <f>H36+H84-H88-H115</f>
         <v>164533749857.95569</v>
       </c>
-      <c r="I117" s="123">
+      <c r="I117" s="122">
         <f t="shared" ref="I117:K117" si="87">I36+I84-I88-I115</f>
         <v>186968924710.02322</v>
       </c>
-      <c r="J117" s="123">
+      <c r="J117" s="122">
         <f t="shared" si="87"/>
         <v>210139889685.66467</v>
       </c>
-      <c r="K117" s="123">
+      <c r="K117" s="122">
         <f t="shared" si="87"/>
-        <v>222098380292.58331</v>
+        <v>221121783699.23761</v>
       </c>
       <c r="L117" s="25"/>
     </row>
@@ -5790,9 +5921,9 @@
       <c r="H118" s="20"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D125" s="124"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="124"/>
+      <c r="D125" s="123"/>
+      <c r="E125" s="123"/>
+      <c r="F125" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5806,8 +5937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5840,6 +5971,16 @@
         <v>302</v>
       </c>
       <c r="F2" s="57"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="36" t="s">
@@ -5847,13 +5988,38 @@
       </c>
       <c r="C3" s="93">
         <f>F20</f>
-        <v>0.10069769946768635</v>
+        <v>0.10041943914865289</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>303</v>
       </c>
       <c r="F3" s="93">
         <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="H3" s="138" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3" s="143">
+        <f>C15</f>
+        <v>172.81222005640905</v>
+      </c>
+      <c r="J3" s="144">
+        <v>0.06</v>
+      </c>
+      <c r="K3" s="144">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L3" s="144">
+        <v>0.08</v>
+      </c>
+      <c r="M3" s="144">
+        <v>0.09</v>
+      </c>
+      <c r="N3" s="144">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="145">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -5865,6 +6031,29 @@
       <c r="F4" s="94">
         <v>3.7400000000000003E-2</v>
       </c>
+      <c r="H4" s="139"/>
+      <c r="I4" s="141">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="133">
+        <f t="dataTable" ref="J4:O13" dt2D="1" dtr="1" r1="C3" r2="C5"/>
+        <v>264.71106296458754</v>
+      </c>
+      <c r="K4" s="133">
+        <v>218.90760224541029</v>
+      </c>
+      <c r="L4" s="133">
+        <v>186.23540232511556</v>
+      </c>
+      <c r="M4" s="133">
+        <v>161.76857551405834</v>
+      </c>
+      <c r="N4" s="133">
+        <v>142.770596390603</v>
+      </c>
+      <c r="O4" s="147">
+        <v>127.5996161915733</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="36" t="s">
@@ -5875,6 +6064,28 @@
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="1"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="141">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J5" s="133">
+        <v>289.97550550615586</v>
+      </c>
+      <c r="K5" s="133">
+        <v>235.49837628963562</v>
+      </c>
+      <c r="L5" s="133">
+        <v>197.82876122169858</v>
+      </c>
+      <c r="M5" s="133">
+        <v>170.24199011953075</v>
+      </c>
+      <c r="N5" s="133">
+        <v>149.17802127237616</v>
+      </c>
+      <c r="O5" s="147">
+        <v>132.57584313926191</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="36" t="s">
@@ -5882,7 +6093,7 @@
       </c>
       <c r="C6" s="88">
         <f>(G27*(1+C5))/(C3-C5)</f>
-        <v>3235767690091.8149</v>
+        <v>3234269400093.2222</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>305</v>
@@ -5890,6 +6101,30 @@
       <c r="F6" s="93">
         <f>AVERAGE(F3:F4)</f>
         <v>3.7750000000000006E-2</v>
+      </c>
+      <c r="H6" s="140" t="s">
+        <v>361</v>
+      </c>
+      <c r="I6" s="141">
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="133">
+        <v>321.55605868311636</v>
+      </c>
+      <c r="K6" s="133">
+        <v>255.40730514270612</v>
+      </c>
+      <c r="L6" s="133">
+        <v>211.35434660104542</v>
+      </c>
+      <c r="M6" s="133">
+        <v>179.92589252578492</v>
+      </c>
+      <c r="N6" s="133">
+        <v>156.38637426437094</v>
+      </c>
+      <c r="O6" s="147">
+        <v>138.10498419224922</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -5901,6 +6136,28 @@
       <c r="F7" s="1">
         <v>1.18</v>
       </c>
+      <c r="H7" s="139"/>
+      <c r="I7" s="141">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="133">
+        <v>362.15962705349409</v>
+      </c>
+      <c r="K7" s="133">
+        <v>279.74044040756996</v>
+      </c>
+      <c r="L7" s="133">
+        <v>227.33912932209168</v>
+      </c>
+      <c r="M7" s="133">
+        <v>191.09962607146272</v>
+      </c>
+      <c r="N7" s="133">
+        <v>164.5558409886317</v>
+      </c>
+      <c r="O7" s="147">
+        <v>144.28461242794091</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="36" t="s">
@@ -5908,17 +6165,36 @@
       </c>
       <c r="C8" s="88">
         <f>C6/((1+C3)^5)</f>
-        <v>2002797498539.9153</v>
+        <v>2004402442992.3174</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F8" s="95">
         <v>5.5E-2</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="88"/>
-      <c r="K8" s="121"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="141">
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="133">
+        <v>416.29771821399771</v>
+      </c>
+      <c r="K8" s="133">
+        <v>310.1568594886499</v>
+      </c>
+      <c r="L8" s="133">
+        <v>246.52086858734722</v>
+      </c>
+      <c r="M8" s="133">
+        <v>204.13564854142027</v>
+      </c>
+      <c r="N8" s="134">
+        <v>173.89237438778696</v>
+      </c>
+      <c r="O8" s="147">
+        <v>151.23669419309408</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="36" t="s">
@@ -5926,7 +6202,7 @@
       </c>
       <c r="C9" s="109">
         <f>SUM(C28:G28)</f>
-        <v>658003504117.43372</v>
+        <v>657917734237.03247</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>307</v>
@@ -5935,8 +6211,28 @@
         <f>F6+F7*(F8)</f>
         <v>0.10265000000000001</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="88"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="141">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J9" s="133">
+        <v>492.09104583870283</v>
+      </c>
+      <c r="K9" s="133">
+        <v>349.26368402146687</v>
+      </c>
+      <c r="L9" s="133">
+        <v>269.96521657821506</v>
+      </c>
+      <c r="M9" s="133">
+        <v>219.54185691500641</v>
+      </c>
+      <c r="N9" s="133">
+        <v>184.66529754065832</v>
+      </c>
+      <c r="O9" s="147">
+        <v>159.11572019360099</v>
+      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="36" t="s">
@@ -5944,10 +6240,32 @@
       </c>
       <c r="C10" s="88">
         <f>SUM(C8:C9)</f>
-        <v>2660801002657.3491</v>
+        <v>2662320177229.3496</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="1"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="J10" s="133">
+        <v>605.78103727576047</v>
+      </c>
+      <c r="K10" s="133">
+        <v>401.40611673188954</v>
+      </c>
+      <c r="L10" s="133">
+        <v>299.27065156679993</v>
+      </c>
+      <c r="M10" s="133">
+        <v>238.02930696330975</v>
+      </c>
+      <c r="N10" s="133">
+        <v>197.23370788567487</v>
+      </c>
+      <c r="O10" s="147">
+        <v>168.12032133703752</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="36"/>
@@ -5959,6 +6277,28 @@
         <f>'Statement Model'!C7</f>
         <v>0.14699999999999999</v>
       </c>
+      <c r="H11" s="139"/>
+      <c r="I11" s="141">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J11" s="133">
+        <v>795.26435633752294</v>
+      </c>
+      <c r="K11" s="133">
+        <v>474.40552252648115</v>
+      </c>
+      <c r="L11" s="133">
+        <v>336.94906798069462</v>
+      </c>
+      <c r="M11" s="133">
+        <v>260.62507924456941</v>
+      </c>
+      <c r="N11" s="133">
+        <v>212.08728374796721</v>
+      </c>
+      <c r="O11" s="147">
+        <v>178.51024573331037</v>
+      </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="36" t="s">
@@ -5973,6 +6313,28 @@
       <c r="F12" s="97">
         <v>3416000000000</v>
       </c>
+      <c r="H12" s="139"/>
+      <c r="I12" s="141">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="133">
+        <v>1174.230994461049</v>
+      </c>
+      <c r="K12" s="133">
+        <v>583.90463121836888</v>
+      </c>
+      <c r="L12" s="133">
+        <v>387.18695653255435</v>
+      </c>
+      <c r="M12" s="133">
+        <v>288.86979459614406</v>
+      </c>
+      <c r="N12" s="133">
+        <v>229.91157478271802</v>
+      </c>
+      <c r="O12" s="147">
+        <v>190.63182419562872</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="36" t="s">
@@ -5980,7 +6342,7 @@
       </c>
       <c r="C13" s="88">
         <f>C10-C12</f>
-        <v>2660801002657.3491</v>
+        <v>2662320177229.3496</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>310</v>
@@ -5988,23 +6350,45 @@
       <c r="F13" s="74">
         <f>'Balance Sheet SEC'!F20*1000000</f>
         <v>29965000000</v>
+      </c>
+      <c r="H13" s="72"/>
+      <c r="I13" s="142">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J13" s="135">
+        <v>2311.1309088316257</v>
+      </c>
+      <c r="K13" s="135">
+        <v>766.40314570484793</v>
+      </c>
+      <c r="L13" s="135">
+        <v>457.5200005051579</v>
+      </c>
+      <c r="M13" s="135">
+        <v>325.1844286195971</v>
+      </c>
+      <c r="N13" s="135">
+        <v>251.69681938074677</v>
+      </c>
+      <c r="O13" s="148">
+        <v>204.95732601473222</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
       <c r="C14" s="1"/>
       <c r="E14" s="36" t="s">
-        <v>311</v>
+        <v>194</v>
       </c>
       <c r="F14" s="20">
         <f>'Statement Model'!F67+'Statement Model'!F73</f>
         <v>111088000000</v>
       </c>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="36" t="s">
@@ -6012,10 +6396,10 @@
       </c>
       <c r="C15" s="88">
         <f>C13/'Statement Model'!C6</f>
-        <v>172.71360985441828</v>
+        <v>172.81222005640905</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F15" s="98">
         <f>F12-F13+F14</f>
@@ -6042,7 +6426,7 @@
       <c r="B17" s="36"/>
       <c r="C17" s="1"/>
       <c r="E17" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F17" s="92">
         <f>F14</f>
@@ -6061,13 +6445,14 @@
       </c>
       <c r="C18" s="110">
         <f>C15-C16</f>
-        <v>-52.006390145581719</v>
+        <v>-51.907779943590953</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="F18" s="127">
-        <v>4.5999999999999999E-2</v>
+        <v>313</v>
+      </c>
+      <c r="F18" s="126">
+        <f>'Statement Model'!F29/DCF!F14</f>
+        <v>3.5404364107734405E-2</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -6083,7 +6468,7 @@
       </c>
       <c r="C19" s="111">
         <f>C18/C16</f>
-        <v>-0.23142751043779689</v>
+        <v>-0.23098869679419257</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="1"/>
@@ -6095,11 +6480,11 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E20" s="50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F20" s="99">
         <f>(F15/(F15+F17))*F9+(F17/(F15+F17))*F18*(1-F11)</f>
-        <v>0.10069769946768635</v>
+        <v>0.10041943914865289</v>
       </c>
       <c r="K20" s="87"/>
       <c r="L20" s="87"/>
@@ -6141,7 +6526,7 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="25"/>
       <c r="G24" s="1"/>
-      <c r="J24" s="122"/>
+      <c r="J24" s="121"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
@@ -6166,15 +6551,15 @@
       </c>
       <c r="G25" s="6">
         <f>'Statement Model'!K27</f>
-        <v>146871473431.41</v>
-      </c>
-      <c r="J25" s="122"/>
+        <v>146168739108.77173</v>
+      </c>
+      <c r="J25" s="121"/>
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
       <c r="G26" s="1"/>
-      <c r="J26" s="122"/>
+      <c r="J26" s="121"/>
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
@@ -6199,85 +6584,85 @@
       </c>
       <c r="G27" s="20">
         <f>'Statement Model'!K117</f>
-        <v>222098380292.58331</v>
-      </c>
-      <c r="J27" s="122"/>
+        <v>221121783699.23761</v>
+      </c>
+      <c r="J27" s="121"/>
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="126">
+      <c r="C28" s="125">
         <f>C27/((1+$C$3)^1)</f>
-        <v>101358056140.78966</v>
-      </c>
-      <c r="D28" s="126">
+        <v>101383686299.64996</v>
+      </c>
+      <c r="D28" s="125">
         <f>D27/((1+$C$3)^2)</f>
-        <v>135805975111.8252</v>
-      </c>
-      <c r="E28" s="126">
+        <v>135874665631.95621</v>
+      </c>
+      <c r="E28" s="125">
         <f>E27/((1+$C$3)^3)</f>
-        <v>140205565696.82755</v>
-      </c>
-      <c r="F28" s="126">
+        <v>140311952889.29483</v>
+      </c>
+      <c r="F28" s="125">
         <f>F27/((1+$C$3)^4)</f>
-        <v>143164804598.66223</v>
-      </c>
-      <c r="G28" s="126">
+        <v>143309666441.65704</v>
+      </c>
+      <c r="G28" s="125">
         <f>G27/((1+$C$3)^5)</f>
-        <v>137469102569.32907</v>
-      </c>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
+        <v>137037762974.47446</v>
+      </c>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J29" s="122"/>
+      <c r="J29" s="121"/>
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="J30" s="122"/>
+      <c r="J30" s="121"/>
       <c r="K30" s="20"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="122"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="88"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="122"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="88"/>
       <c r="I38" s="88"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="122"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="88"/>
-      <c r="H39" s="122"/>
+      <c r="H39" s="121"/>
       <c r="I39" s="88"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="122"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="88"/>
       <c r="G40" s="88"/>
-      <c r="H40" s="122"/>
+      <c r="H40" s="121"/>
       <c r="I40" s="88"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F41" s="122"/>
+      <c r="F41" s="121"/>
       <c r="G41" s="88"/>
-      <c r="H41" s="122"/>
+      <c r="H41" s="121"/>
       <c r="I41" s="88"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F42" s="122"/>
+      <c r="F42" s="121"/>
       <c r="G42" s="88"/>
-      <c r="H42" s="122"/>
+      <c r="H42" s="121"/>
       <c r="I42" s="88"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F43" s="122"/>
+      <c r="F43" s="121"/>
       <c r="G43" s="88"/>
-      <c r="H43" s="122"/>
+      <c r="H43" s="121"/>
       <c r="I43" s="88"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
@@ -6314,22 +6699,22 @@
       <c r="I54" s="88"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="122"/>
+      <c r="I59" s="121"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="122"/>
+      <c r="I60" s="121"/>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="122"/>
+      <c r="I62" s="121"/>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="122"/>
+      <c r="I63" s="121"/>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I64" s="20"/>
     </row>
     <row r="65" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="I65" s="122"/>
+      <c r="I65" s="121"/>
       <c r="J65" s="88"/>
       <c r="T65" s="87"/>
       <c r="U65" s="87"/>
@@ -6360,7 +6745,7 @@
       <c r="V67" s="88"/>
     </row>
     <row r="70" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="U70" s="122"/>
+      <c r="U70" s="121"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
@@ -6374,85 +6759,85 @@
       <c r="P71" s="88"/>
       <c r="Q71" s="88"/>
       <c r="R71" s="88"/>
-      <c r="U71" s="122"/>
-      <c r="X71" s="122"/>
+      <c r="U71" s="121"/>
+      <c r="X71" s="121"/>
     </row>
     <row r="72" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D72" s="66"/>
       <c r="G72" s="88"/>
-      <c r="H72" s="122"/>
+      <c r="H72" s="121"/>
       <c r="I72" s="88"/>
       <c r="J72" s="88"/>
       <c r="K72" s="88"/>
-      <c r="U72" s="122"/>
-      <c r="X72" s="122"/>
+      <c r="U72" s="121"/>
+      <c r="X72" s="121"/>
     </row>
     <row r="73" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D73" s="6"/>
       <c r="G73" s="88"/>
-      <c r="H73" s="122"/>
+      <c r="H73" s="121"/>
       <c r="I73" s="88"/>
       <c r="J73" s="88"/>
       <c r="K73" s="88"/>
-      <c r="U73" s="122"/>
-      <c r="X73" s="122"/>
+      <c r="U73" s="121"/>
+      <c r="X73" s="121"/>
     </row>
     <row r="74" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H74" s="122"/>
+      <c r="H74" s="121"/>
       <c r="I74" s="88"/>
       <c r="J74" s="88"/>
       <c r="K74" s="88"/>
-      <c r="U74" s="122"/>
-      <c r="X74" s="122"/>
+      <c r="U74" s="121"/>
+      <c r="X74" s="121"/>
     </row>
     <row r="75" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H75" s="122"/>
+      <c r="H75" s="121"/>
       <c r="I75" s="88"/>
       <c r="J75" s="88"/>
       <c r="K75" s="88"/>
-      <c r="X75" s="122"/>
+      <c r="X75" s="121"/>
     </row>
     <row r="76" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H76" s="122"/>
+      <c r="H76" s="121"/>
       <c r="I76" s="88"/>
       <c r="J76" s="88"/>
       <c r="K76" s="88"/>
     </row>
     <row r="77" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D77" s="88"/>
-      <c r="H77" s="122"/>
+      <c r="H77" s="121"/>
       <c r="I77" s="88"/>
       <c r="J77" s="88"/>
       <c r="K77" s="88"/>
     </row>
     <row r="78" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H78" s="122"/>
+      <c r="H78" s="121"/>
       <c r="I78" s="88"/>
       <c r="J78" s="88"/>
       <c r="K78" s="88"/>
     </row>
     <row r="79" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H79" s="122"/>
+      <c r="H79" s="121"/>
       <c r="I79" s="88"/>
       <c r="J79" s="88"/>
       <c r="K79" s="88"/>
     </row>
     <row r="80" spans="4:27" x14ac:dyDescent="0.2">
-      <c r="H80" s="122"/>
+      <c r="H80" s="121"/>
       <c r="I80" s="88"/>
       <c r="J80" s="88"/>
       <c r="K80" s="88"/>
     </row>
     <row r="81" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I81" s="122"/>
+      <c r="I81" s="121"/>
       <c r="J81" s="88"/>
     </row>
     <row r="82" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I82" s="122"/>
+      <c r="I82" s="121"/>
       <c r="J82" s="88"/>
     </row>
     <row r="83" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="I83" s="122"/>
+      <c r="I83" s="121"/>
       <c r="J83" s="88"/>
     </row>
     <row r="84" spans="7:13" x14ac:dyDescent="0.2">
@@ -6467,82 +6852,82 @@
       <c r="L86" s="88"/>
     </row>
     <row r="87" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G87" s="122"/>
+      <c r="G87" s="121"/>
       <c r="H87" s="88"/>
       <c r="I87" s="64"/>
-      <c r="K87" s="122"/>
+      <c r="K87" s="121"/>
       <c r="L87" s="88"/>
       <c r="M87" s="88"/>
     </row>
     <row r="88" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G88" s="122"/>
+      <c r="G88" s="121"/>
       <c r="H88" s="88"/>
       <c r="I88" s="64"/>
       <c r="J88" s="64"/>
-      <c r="K88" s="122"/>
+      <c r="K88" s="121"/>
       <c r="L88" s="88"/>
       <c r="M88" s="88"/>
     </row>
     <row r="89" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G89" s="122"/>
+      <c r="G89" s="121"/>
       <c r="H89" s="88"/>
       <c r="I89" s="64"/>
       <c r="J89" s="64"/>
-      <c r="K89" s="122"/>
+      <c r="K89" s="121"/>
       <c r="L89" s="88"/>
       <c r="M89" s="88"/>
     </row>
     <row r="90" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G90" s="122"/>
+      <c r="G90" s="121"/>
       <c r="H90" s="88"/>
       <c r="I90" s="64"/>
       <c r="J90" s="64"/>
-      <c r="K90" s="122"/>
+      <c r="K90" s="121"/>
       <c r="L90" s="88"/>
       <c r="M90" s="88"/>
     </row>
     <row r="91" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G91" s="122"/>
+      <c r="G91" s="121"/>
       <c r="H91" s="88"/>
       <c r="I91" s="6"/>
       <c r="J91" s="64"/>
-      <c r="K91" s="122"/>
+      <c r="K91" s="121"/>
       <c r="L91" s="88"/>
       <c r="M91" s="88"/>
     </row>
     <row r="92" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G92" s="122"/>
+      <c r="G92" s="121"/>
       <c r="H92" s="88"/>
       <c r="I92" s="6"/>
       <c r="J92" s="64"/>
-      <c r="K92" s="122"/>
+      <c r="K92" s="121"/>
       <c r="L92" s="88"/>
       <c r="M92" s="88"/>
     </row>
     <row r="93" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G93" s="122"/>
+      <c r="G93" s="121"/>
       <c r="H93" s="88"/>
       <c r="I93" s="6"/>
       <c r="J93" s="64"/>
-      <c r="K93" s="122"/>
+      <c r="K93" s="121"/>
       <c r="L93" s="88"/>
       <c r="M93" s="88"/>
     </row>
     <row r="94" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G94" s="122"/>
+      <c r="G94" s="121"/>
       <c r="H94" s="88"/>
       <c r="I94" s="6"/>
       <c r="J94" s="64"/>
-      <c r="K94" s="122"/>
+      <c r="K94" s="121"/>
       <c r="L94" s="88"/>
       <c r="M94" s="88"/>
     </row>
     <row r="95" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G95" s="122"/>
+      <c r="G95" s="121"/>
       <c r="H95" s="88"/>
       <c r="I95" s="6"/>
       <c r="J95" s="64"/>
-      <c r="K95" s="122"/>
+      <c r="K95" s="121"/>
       <c r="L95" s="88"/>
       <c r="M95" s="88"/>
     </row>
@@ -6559,10 +6944,10 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7777,96 +8162,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="132"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="131"/>
+      <c r="C10" s="130"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="131"/>
+      <c r="C12" s="130"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="131"/>
+      <c r="C13" s="130"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="131"/>
+      <c r="C14" s="130"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -8695,81 +9080,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="132"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
@@ -10382,7 +10767,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="124" t="s">
         <v>138</v>
       </c>
       <c r="B9">
